--- a/data/outputs/OR_elsevier/33.xlsx
+++ b/data/outputs/OR_elsevier/33.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS43"/>
+  <dimension ref="A1:BU43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -947,6 +957,12 @@
           <t>2-s2.0-84921806746</t>
         </is>
       </c>
+      <c r="BT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1162,6 +1178,12 @@
           <t>2-s2.0-84936889076</t>
         </is>
       </c>
+      <c r="BT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1378,6 +1400,12 @@
         <is>
           <t>2-s2.0-84921808902</t>
         </is>
+      </c>
+      <c r="BT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="5">
@@ -1588,6 +1616,12 @@
           <t>2-s2.0-84936931455</t>
         </is>
       </c>
+      <c r="BT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1799,6 +1833,12 @@
           <t>2-s2.0-84928995175</t>
         </is>
       </c>
+      <c r="BT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2014,6 +2054,12 @@
           <t>2-s2.0-84921750875</t>
         </is>
       </c>
+      <c r="BT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2236,6 +2282,12 @@
         <is>
           <t>2-s2.0-84946729122</t>
         </is>
+      </c>
+      <c r="BT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="9">
@@ -2444,6 +2496,12 @@
           <t>2-s2.0-84928994253</t>
         </is>
       </c>
+      <c r="BT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2671,6 +2729,12 @@
           <t>2-s2.0-84921786559</t>
         </is>
       </c>
+      <c r="BT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2884,6 +2948,12 @@
           <t>2-s2.0-84936939473</t>
         </is>
       </c>
+      <c r="BT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3107,6 +3177,12 @@
           <t>2-s2.0-84921810581</t>
         </is>
       </c>
+      <c r="BT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3331,6 +3407,12 @@
         <is>
           <t>2-s2.0-84928985994</t>
         </is>
+      </c>
+      <c r="BT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="14">
@@ -3539,6 +3621,12 @@
           <t>2-s2.0-84928981619</t>
         </is>
       </c>
+      <c r="BT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3754,6 +3842,12 @@
           <t>2-s2.0-84946735927</t>
         </is>
       </c>
+      <c r="BT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3969,6 +4063,12 @@
           <t>2-s2.0-84936943016</t>
         </is>
       </c>
+      <c r="BT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4180,6 +4280,12 @@
           <t>2-s2.0-84936942271</t>
         </is>
       </c>
+      <c r="BT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4399,6 +4505,12 @@
           <t>2-s2.0-84946740850</t>
         </is>
       </c>
+      <c r="BT18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4621,6 +4733,12 @@
         <is>
           <t>2-s2.0-84946738529</t>
         </is>
+      </c>
+      <c r="BT19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="20">
@@ -4829,6 +4947,12 @@
           <t>2-s2.0-84946745923</t>
         </is>
       </c>
+      <c r="BT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5036,6 +5160,12 @@
           <t>2-s2.0-84928981530</t>
         </is>
       </c>
+      <c r="BT21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5243,6 +5373,12 @@
           <t>2-s2.0-84921734145</t>
         </is>
       </c>
+      <c r="BT22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5468,6 +5604,12 @@
           <t>2-s2.0-84921755917</t>
         </is>
       </c>
+      <c r="BT23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5692,6 +5834,12 @@
         <is>
           <t>2-s2.0-84941976695</t>
         </is>
+      </c>
+      <c r="BT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -5900,6 +6048,12 @@
           <t>2-s2.0-84934778025</t>
         </is>
       </c>
+      <c r="BT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6118,6 +6272,12 @@
         <is>
           <t>2-s2.0-84936930812</t>
         </is>
+      </c>
+      <c r="BT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="27">
@@ -6330,6 +6490,12 @@
           <t>2-s2.0-84928991373</t>
         </is>
       </c>
+      <c r="BT27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6546,6 +6712,12 @@
         <is>
           <t>2-s2.0-84946725438</t>
         </is>
+      </c>
+      <c r="BT28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="29">
@@ -6756,6 +6928,12 @@
           <t>2-s2.0-84946730320</t>
         </is>
       </c>
+      <c r="BT29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6974,6 +7152,12 @@
         <is>
           <t>2-s2.0-84936939666</t>
         </is>
+      </c>
+      <c r="BT30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="31">
@@ -7182,6 +7366,12 @@
           <t>2-s2.0-84921740589</t>
         </is>
       </c>
+      <c r="BT31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7393,6 +7583,12 @@
           <t>2-s2.0-84946733619</t>
         </is>
       </c>
+      <c r="BT32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7610,6 +7806,12 @@
           <t>2-s2.0-84936932169</t>
         </is>
       </c>
+      <c r="BT33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7825,6 +8027,12 @@
           <t>2-s2.0-84936932702</t>
         </is>
       </c>
+      <c r="BT34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU34" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -8040,6 +8248,12 @@
           <t>2-s2.0-84928981792</t>
         </is>
       </c>
+      <c r="BT35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8257,6 +8471,12 @@
           <t>2-s2.0-84946733183</t>
         </is>
       </c>
+      <c r="BT36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU36" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8481,6 +8701,12 @@
         <is>
           <t>2-s2.0-84936950413</t>
         </is>
+      </c>
+      <c r="BT37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU37" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="38">
@@ -8687,6 +8913,12 @@
           <t>2-s2.0-84921817294</t>
         </is>
       </c>
+      <c r="BT38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU38" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8896,6 +9128,12 @@
           <t>2-s2.0-84946750204</t>
         </is>
       </c>
+      <c r="BT39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU39" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9110,6 +9348,12 @@
         <is>
           <t>2-s2.0-84921729948</t>
         </is>
+      </c>
+      <c r="BT40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU40" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="41">
@@ -9314,6 +9558,12 @@
           <t>2-s2.0-84928999034</t>
         </is>
       </c>
+      <c r="BT41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU41" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9523,6 +9773,12 @@
           <t>2-s2.0-84928994974</t>
         </is>
       </c>
+      <c r="BT42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU42" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9740,6 +9996,12 @@
           <t>2-s2.0-84946750505</t>
         </is>
       </c>
+      <c r="BT43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU43" t="n">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
